--- a/RETIRED/PANGHULAN, NELSON.xlsx
+++ b/RETIRED/PANGHULAN, NELSON.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84877131-0892-477E-BA06-EB0FA797F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323933FE-4C49-4580-B9C9-DF4E0EA73895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,6 +189,27 @@
   <si>
     <t>PANGHULAN, NELSON</t>
   </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>CASUAL EMPLOYEE</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <t>OPTIONAL RETIREMENT EFFECTIVE DATE:JANUARY 01, 2024</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 50.000</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 75.000</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +221,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +256,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,17 +595,35 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -590,11 +637,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2826,7 +2882,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K132" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K90" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
@@ -3234,12 +3290,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="2580" topLeftCell="A55" activePane="bottomLeft"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3261,60 +3317,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3340,18 +3400,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13">
+      <c r="E9" s="57">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
         <v>50</v>
       </c>
@@ -3406,7 +3466,7 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
+      <c r="I9" s="57">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
         <v>75</v>
       </c>
@@ -3437,227 +3497,293 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <f>SUM(C11,E10)-D11</f>
+        <v>1.25</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <f>SUM(G11,I10)-H11</f>
+        <v>1.25</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>43132</v>
+        <v>43159</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E74" si="0">SUM(C12,E11)-D12</f>
+        <v>2.5</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <f t="shared" ref="I12:I74" si="1">SUM(G12,I11)-H12</f>
+        <v>2.5</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>43160</v>
+        <v>43190</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>43221</v>
+        <v>43251</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>43252</v>
+        <v>43281</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>43282</v>
+        <v>43312</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>43313</v>
+        <v>43343</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>43405</v>
+        <v>43434</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3668,14 +3794,20 @@
       <c r="D22" s="39">
         <v>5</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
@@ -3686,240 +3818,312 @@
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>43466</v>
+        <v>43496</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>43497</v>
+        <v>43524</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>43525</v>
+        <v>43555</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>43556</v>
+        <v>43585</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>43586</v>
+        <v>43616</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>43617</v>
+        <v>43646</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>43647</v>
+        <v>43677</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>43678</v>
+        <v>43708</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>43709</v>
+        <v>43738</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>43770</v>
+        <v>43799</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <f t="shared" si="1"/>
+        <v>28.75</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -3930,14 +4134,20 @@
       <c r="D35" s="39">
         <v>5</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
@@ -3948,240 +4158,312 @@
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>43862</v>
+        <v>43890</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="9">
+        <f t="shared" si="1"/>
+        <v>33.75</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43922</v>
+        <v>43951</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="9">
+        <f t="shared" si="1"/>
+        <v>36.25</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43983</v>
+        <v>44012</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
       <c r="D43" s="39"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9">
+        <f t="shared" si="1"/>
+        <v>38.75</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
       <c r="D45" s="39"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="9">
+        <f t="shared" si="1"/>
+        <v>41.25</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="9">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>48</v>
@@ -4192,14 +4474,20 @@
       <c r="D48" s="39">
         <v>5</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
@@ -4210,240 +4498,312 @@
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="39"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9">
+        <f t="shared" si="1"/>
+        <v>46.25</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>44228</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9">
+        <f t="shared" si="1"/>
+        <v>48.75</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
       <c r="D53" s="39"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="9">
+        <f t="shared" si="1"/>
+        <v>51.25</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
       <c r="D55" s="39"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="9">
+        <f t="shared" si="1"/>
+        <v>53.75</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44409</v>
+        <v>44439</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="9">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>41.25</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
       <c r="D59" s="39"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44501</v>
+        <v>44530</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="9">
+        <f t="shared" si="1"/>
+        <v>58.75</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44531</v>
+        <v>44561</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>48</v>
@@ -4454,14 +4814,20 @@
       <c r="D61" s="39">
         <v>5</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
@@ -4472,240 +4838,312 @@
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H62" s="39"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <f t="shared" si="0"/>
+        <v>41.25</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="9">
+        <f t="shared" si="1"/>
+        <v>61.25</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
       <c r="D65" s="39"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9">
+        <f t="shared" si="1"/>
+        <v>63.75</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
       <c r="D66" s="39"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <f t="shared" si="0"/>
+        <v>46.25</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9">
+        <f t="shared" si="1"/>
+        <v>66.25</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
       <c r="D68" s="39"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
       <c r="D69" s="39"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="9">
+        <f t="shared" si="0"/>
+        <v>48.75</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="9">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <f t="shared" si="0"/>
+        <v>51.25</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="9">
+        <f t="shared" si="1"/>
+        <v>71.25</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="9">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
       <c r="D73" s="39"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="9">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9">
+        <f t="shared" si="1"/>
+        <v>73.75</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>48</v>
@@ -4716,28 +5154,33 @@
       <c r="D74" s="39">
         <v>5</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="9"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G75" s="13"/>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
@@ -4747,14 +5190,15 @@
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="54" t="s">
+        <v>56</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
@@ -4762,18 +5206,19 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="G77" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="52"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
@@ -4983,693 +5428,21 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -5684,10 +5457,10 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY:&amp;U JUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                            OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5702,10 +5475,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3660" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5727,71 +5500,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>PANGHULAN, NELSON</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
-      </c>
-      <c r="C3" s="49"/>
+        <v>CASUAL EMPLOYEE</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="62" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="63" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>CSU</v>
+      </c>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5817,18 +5590,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -7876,7 +7649,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7894,17 +7667,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -7970,6 +7743,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7983,14 +7759,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>125</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
